--- a/generated_docs/WR_89774377_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89774377_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I47"/>
+  <dimension ref="A2:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6039.69</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>429.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>53.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +878,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>CND-S40795A</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup 4/0-795 ACSR</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>SLB-W-30-A-1-S</t>
+          <t>CND-S40795A</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>SLB,Wood,30in,Alum,1Pos,Street</t>
+          <t>CND,Stirrup 4/0-795 ACSR</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -935,18 +935,18 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>51.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>EQL-1-4-C-4-C-LC1</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,18 +969,18 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>CND-SA40</t>
+          <t>SLB-W-30-A-1-S</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup Ampact 4/0</t>
+          <t>SLB,Wood,30in,Alum,1Pos,Street</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>12.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1037,18 +1037,18 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC183PH-F-C</t>
+          <t>CND-SA40</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
+          <t>CND,Stirrup Ampact 4/0</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,18 +1071,18 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>DEC-397AL-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>DEC,#3/0 - #397 AA,AL,AS,Corrosive</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1101,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>1431.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>SWI-27-CO1-100-H-C</t>
+          <t>BKT-AC183PH-F-C</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1135,464 +1135,600 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>187.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="15" t="inlineStr">
+      <c r="A28" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D28" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" s="10" t="inlineStr"/>
+      <c r="H28" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B29" s="12" t="inlineStr">
+        <is>
+          <t>DEC-397AL-C</t>
+        </is>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D29" s="12" t="inlineStr">
+        <is>
+          <t>DEC,#3/0 - #397 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E29" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F29" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" s="13" t="inlineStr"/>
+      <c r="H29" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="inlineStr">
+        <is>
+          <t>SWI-27-CO1-100-H-C</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="inlineStr">
+        <is>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+        </is>
+      </c>
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" s="10" t="inlineStr"/>
+      <c r="H30" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H28" s="16" t="n">
-        <v>2382.55</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="inlineStr">
+      <c r="H31" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
         <is>
           <t>Tuesday (08/05/2025)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="8" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C32" s="8" t="inlineStr">
+      <c r="C35" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D32" s="8" t="inlineStr">
+      <c r="D35" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E32" s="8" t="inlineStr">
+      <c r="E35" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F32" s="8" t="inlineStr">
+      <c r="F35" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G32" s="8" t="inlineStr">
+      <c r="G35" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H32" s="8" t="inlineStr">
+      <c r="H35" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="9" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="9" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B33" s="9" t="inlineStr">
+      <c r="B36" s="9" t="inlineStr">
         <is>
           <t>SLT-LED-RW-T3-8L-SF-B</t>
         </is>
       </c>
-      <c r="C33" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
         <is>
           <t>8000L, LED, Type3, Roadway,Slipfit,Blk</t>
         </is>
       </c>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F33" s="10" t="n">
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F36" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G33" s="10" t="inlineStr"/>
-      <c r="H33" s="11" t="n">
-        <v>76.75</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="12" t="inlineStr">
+      <c r="G36" s="10" t="inlineStr"/>
+      <c r="H36" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B34" s="12" t="inlineStr">
+      <c r="B37" s="12" t="inlineStr">
         <is>
           <t>SWI-27-CO1-100-H-C</t>
         </is>
       </c>
-      <c r="C34" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D34" s="12" t="inlineStr">
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
         <is>
           <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
         </is>
       </c>
-      <c r="E34" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F34" s="13" t="n">
+      <c r="E37" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G34" s="13" t="inlineStr"/>
-      <c r="H34" s="14" t="n">
-        <v>62.42</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="inlineStr">
+      <c r="G37" s="13" t="inlineStr"/>
+      <c r="H37" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
         <is>
           <t>Point 04</t>
         </is>
       </c>
-      <c r="B35" s="9" t="inlineStr">
+      <c r="B38" s="9" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C35" s="9" t="inlineStr">
+      <c r="C38" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D35" s="9" t="inlineStr">
+      <c r="D38" s="9" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E35" s="9" t="inlineStr">
+      <c r="E38" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F35" s="10" t="n">
+      <c r="F38" s="10" t="n">
         <v>505</v>
       </c>
-      <c r="G35" s="10" t="inlineStr"/>
-      <c r="H35" s="11" t="n">
-        <v>469.65</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="12" t="inlineStr">
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="inlineStr">
         <is>
           <t>Point 04</t>
         </is>
       </c>
-      <c r="B36" s="12" t="inlineStr">
+      <c r="B39" s="12" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-W</t>
         </is>
       </c>
-      <c r="C36" s="12" t="inlineStr">
+      <c r="C39" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D36" s="12" t="inlineStr">
+      <c r="D39" s="12" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,WP</t>
         </is>
       </c>
-      <c r="E36" s="12" t="inlineStr">
+      <c r="E39" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F36" s="13" t="n">
+      <c r="F39" s="13" t="n">
         <v>367</v>
       </c>
-      <c r="G36" s="13" t="inlineStr"/>
-      <c r="H36" s="14" t="n">
-        <v>341.31</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="9" t="inlineStr">
+      <c r="G39" s="13" t="inlineStr"/>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B37" s="9" t="inlineStr">
+      <c r="B40" s="9" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C37" s="9" t="inlineStr">
+      <c r="C40" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D37" s="9" t="inlineStr">
+      <c r="D40" s="9" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E37" s="9" t="inlineStr">
+      <c r="E40" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F37" s="10" t="n">
+      <c r="F40" s="10" t="n">
         <v>497</v>
       </c>
-      <c r="G37" s="10" t="inlineStr"/>
-      <c r="H37" s="11" t="n">
-        <v>462.21</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="12" t="inlineStr">
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B38" s="12" t="inlineStr">
+      <c r="B41" s="12" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C38" s="12" t="inlineStr">
+      <c r="C41" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D38" s="12" t="inlineStr">
+      <c r="D41" s="12" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E38" s="12" t="inlineStr">
+      <c r="E41" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F38" s="13" t="n">
+      <c r="F41" s="13" t="n">
         <v>1579</v>
       </c>
-      <c r="G38" s="13" t="inlineStr"/>
-      <c r="H38" s="14" t="n">
-        <v>1468.47</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="9" t="inlineStr">
+      <c r="G41" s="13" t="inlineStr"/>
+      <c r="H41" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-4-C-LC1</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
+        </is>
+      </c>
+      <c r="E42" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" s="10" t="inlineStr"/>
+      <c r="H42" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B39" s="9" t="inlineStr">
+      <c r="B43" s="12" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C39" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D39" s="9" t="inlineStr">
+      <c r="C43" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D43" s="12" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E39" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F39" s="10" t="n">
+      <c r="E43" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="10" t="inlineStr"/>
-      <c r="H39" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="15" t="inlineStr">
+      <c r="G43" s="13" t="inlineStr"/>
+      <c r="H43" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H40" s="16" t="n">
-        <v>3529.34</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="7" t="inlineStr">
+      <c r="H44" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="inlineStr">
         <is>
           <t>Wednesday (08/06/2025)</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="8" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C44" s="8" t="inlineStr">
+      <c r="C48" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D44" s="8" t="inlineStr">
+      <c r="D48" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E44" s="8" t="inlineStr">
+      <c r="E48" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F44" s="8" t="inlineStr">
+      <c r="F48" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G44" s="8" t="inlineStr">
+      <c r="G48" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H44" s="8" t="inlineStr">
+      <c r="H48" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="9" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="9" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B45" s="9" t="inlineStr">
+      <c r="B49" s="9" t="inlineStr">
         <is>
           <t>SLB-W-30-A-1-S</t>
         </is>
       </c>
-      <c r="C45" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D45" s="9" t="inlineStr">
+      <c r="C49" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
         <is>
           <t>SLB,Wood,30in,Alum,1Pos,Street</t>
         </is>
       </c>
-      <c r="E45" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F45" s="10" t="n">
+      <c r="E49" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G45" s="10" t="inlineStr"/>
-      <c r="H45" s="11" t="n">
-        <v>51.05</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="12" t="inlineStr">
+      <c r="G49" s="10" t="inlineStr"/>
+      <c r="H49" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B46" s="12" t="inlineStr">
+      <c r="B50" s="12" t="inlineStr">
         <is>
           <t>SLT-LED-RW-T3-8L-SF</t>
         </is>
       </c>
-      <c r="C46" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D46" s="12" t="inlineStr">
+      <c r="C50" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="12" t="inlineStr">
         <is>
           <t>8500L LED, Type 3, Roadway</t>
         </is>
       </c>
-      <c r="E46" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F46" s="13" t="n">
+      <c r="E50" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G46" s="13" t="inlineStr"/>
-      <c r="H46" s="14" t="n">
-        <v>76.75</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="15" t="inlineStr">
+      <c r="G50" s="13" t="inlineStr"/>
+      <c r="H50" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H47" s="16" t="n">
-        <v>127.8</v>
+      <c r="H51" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A44:G44"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A34:H34"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A31:G31"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A47:H47"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A51:G51"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89774377_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89774377_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I51"/>
+  <dimension ref="A2:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 09:59 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>6039.69</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P17</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>429.66</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>53.94</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +874,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>CND-S40795A</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +884,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>CND,Stirrup 4/0-795 ACSR</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +908,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>CND-S40795A</t>
+          <t>SLB-W-30-A-1-S</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +918,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup 4/0-795 ACSR</t>
+          <t>SLB,Wood,30in,Alum,1Pos,Street</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -935,18 +931,18 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>51.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-4-C-LC1</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +952,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,18 +965,18 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>SLB-W-30-A-1-S</t>
+          <t>CND-SA40</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +986,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>SLB,Wood,30in,Alum,1Pos,Street</t>
+          <t>CND,Stirrup Ampact 4/0</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1010,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,7 +1020,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1037,18 +1033,18 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>CND-SA40</t>
+          <t>BKT-AC183PH-F-C</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1054,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup Ampact 4/0</t>
+          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,18 +1067,18 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>DEC-397AL-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1088,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>DEC,#3/0 - #397 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1097,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>1431.25</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1112,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC183PH-F-C</t>
+          <t>SWI-27-CO1-100-H-C</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1122,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1135,600 +1131,464 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>187.26</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="inlineStr">
-        <is>
-          <t>CND-HLC2</t>
-        </is>
-      </c>
-      <c r="C28" s="9" t="inlineStr">
+      <c r="A28" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H28" s="16" t="n">
+        <v>2382.55</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>Tuesday (08/05/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D32" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F32" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H32" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B33" s="9" t="inlineStr">
+        <is>
+          <t>SLT-LED-RW-T3-8L-SF-B</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>CND,Hot Line clamp #6-#2</t>
-        </is>
-      </c>
-      <c r="E28" s="9" t="inlineStr">
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>8000L, LED, Type3, Roadway,Slipfit,Blk</t>
+        </is>
+      </c>
+      <c r="E33" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F28" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G28" s="10" t="inlineStr"/>
-      <c r="H28" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B29" s="12" t="inlineStr">
-        <is>
-          <t>DEC-397AL-C</t>
-        </is>
-      </c>
-      <c r="C29" s="12" t="inlineStr">
+      <c r="F33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10" t="inlineStr"/>
+      <c r="H33" s="11" t="n">
+        <v>76.75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B34" s="12" t="inlineStr">
+        <is>
+          <t>SWI-27-CO1-100-H-C</t>
+        </is>
+      </c>
+      <c r="C34" s="12" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D29" s="12" t="inlineStr">
-        <is>
-          <t>DEC,#3/0 - #397 AA,AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E29" s="12" t="inlineStr">
+      <c r="D34" s="12" t="inlineStr">
+        <is>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+        </is>
+      </c>
+      <c r="E34" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F29" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G29" s="13" t="inlineStr"/>
-      <c r="H29" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="inlineStr">
-        <is>
-          <t>SWI-27-CO1-100-H-C</t>
-        </is>
-      </c>
-      <c r="C30" s="9" t="inlineStr">
+      <c r="F34" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13" t="inlineStr"/>
+      <c r="H34" s="14" t="n">
+        <v>62.42</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E35" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>505</v>
+      </c>
+      <c r="G35" s="10" t="inlineStr"/>
+      <c r="H35" s="11" t="n">
+        <v>469.65</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B36" s="12" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-W</t>
+        </is>
+      </c>
+      <c r="C36" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D36" s="12" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,WP</t>
+        </is>
+      </c>
+      <c r="E36" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F36" s="13" t="n">
+        <v>367</v>
+      </c>
+      <c r="G36" s="13" t="inlineStr"/>
+      <c r="H36" s="14" t="n">
+        <v>341.31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E37" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F37" s="10" t="n">
+        <v>497</v>
+      </c>
+      <c r="G37" s="10" t="inlineStr"/>
+      <c r="H37" s="11" t="n">
+        <v>462.21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B38" s="12" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C38" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D38" s="12" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E38" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F38" s="13" t="n">
+        <v>1579</v>
+      </c>
+      <c r="G38" s="13" t="inlineStr"/>
+      <c r="H38" s="14" t="n">
+        <v>1468.47</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B39" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D30" s="9" t="inlineStr">
-        <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
-        </is>
-      </c>
-      <c r="E30" s="9" t="inlineStr">
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E39" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F30" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G30" s="10" t="inlineStr"/>
-      <c r="H30" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="15" t="inlineStr">
+      <c r="F39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10" t="inlineStr"/>
+      <c r="H39" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H31" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="inlineStr">
-        <is>
-          <t>Tuesday (08/05/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="inlineStr">
+      <c r="H40" s="16" t="n">
+        <v>3529.34</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>Wednesday (08/06/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C35" s="8" t="inlineStr">
+      <c r="C44" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D35" s="8" t="inlineStr">
+      <c r="D44" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E35" s="8" t="inlineStr">
+      <c r="E44" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F35" s="8" t="inlineStr">
+      <c r="F44" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G35" s="8" t="inlineStr">
+      <c r="G44" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H35" s="8" t="inlineStr">
+      <c r="H44" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B36" s="9" t="inlineStr">
-        <is>
-          <t>SLT-LED-RW-T3-8L-SF-B</t>
-        </is>
-      </c>
-      <c r="C36" s="9" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B45" s="9" t="inlineStr">
+        <is>
+          <t>SLB-W-30-A-1-S</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D36" s="9" t="inlineStr">
-        <is>
-          <t>8000L, LED, Type3, Roadway,Slipfit,Blk</t>
-        </is>
-      </c>
-      <c r="E36" s="9" t="inlineStr">
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>SLB,Wood,30in,Alum,1Pos,Street</t>
+        </is>
+      </c>
+      <c r="E45" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F36" s="10" t="n">
+      <c r="F45" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G36" s="10" t="inlineStr"/>
-      <c r="H36" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B37" s="12" t="inlineStr">
-        <is>
-          <t>SWI-27-CO1-100-H-C</t>
-        </is>
-      </c>
-      <c r="C37" s="12" t="inlineStr">
+      <c r="G45" s="10" t="inlineStr"/>
+      <c r="H45" s="11" t="n">
+        <v>51.05</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="12" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B46" s="12" t="inlineStr">
+        <is>
+          <t>SLT-LED-RW-T3-8L-SF</t>
+        </is>
+      </c>
+      <c r="C46" s="12" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D37" s="12" t="inlineStr">
-        <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
-        </is>
-      </c>
-      <c r="E37" s="12" t="inlineStr">
+      <c r="D46" s="12" t="inlineStr">
+        <is>
+          <t>8500L LED, Type 3, Roadway</t>
+        </is>
+      </c>
+      <c r="E46" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F37" s="13" t="n">
+      <c r="F46" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G37" s="13" t="inlineStr"/>
-      <c r="H37" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="9" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B38" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C38" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D38" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E38" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F38" s="10" t="n">
-        <v>505</v>
-      </c>
-      <c r="G38" s="10" t="inlineStr"/>
-      <c r="H38" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="12" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B39" s="12" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-W</t>
-        </is>
-      </c>
-      <c r="C39" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D39" s="12" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,WP</t>
-        </is>
-      </c>
-      <c r="E39" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F39" s="13" t="n">
-        <v>367</v>
-      </c>
-      <c r="G39" s="13" t="inlineStr"/>
-      <c r="H39" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B40" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C40" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D40" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E40" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>497</v>
-      </c>
-      <c r="G40" s="10" t="inlineStr"/>
-      <c r="H40" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="12" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B41" s="12" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C41" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D41" s="12" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E41" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F41" s="13" t="n">
-        <v>1579</v>
-      </c>
-      <c r="G41" s="13" t="inlineStr"/>
-      <c r="H41" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B42" s="9" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-4-C-LC1</t>
-        </is>
-      </c>
-      <c r="C42" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D42" s="9" t="inlineStr">
-        <is>
-          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
-        </is>
-      </c>
-      <c r="E42" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G42" s="10" t="inlineStr"/>
-      <c r="H42" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B43" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C43" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D43" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E43" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="13" t="inlineStr"/>
-      <c r="H43" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="15" t="inlineStr">
+      <c r="G46" s="13" t="inlineStr"/>
+      <c r="H46" s="14" t="n">
+        <v>76.75</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H44" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="7" t="inlineStr">
-        <is>
-          <t>Wednesday (08/06/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B48" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C48" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D48" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E48" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F48" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G48" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H48" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="9" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="inlineStr">
-        <is>
-          <t>SLB-W-30-A-1-S</t>
-        </is>
-      </c>
-      <c r="C49" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="9" t="inlineStr">
-        <is>
-          <t>SLB,Wood,30in,Alum,1Pos,Street</t>
-        </is>
-      </c>
-      <c r="E49" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10" t="inlineStr"/>
-      <c r="H49" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="12" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B50" s="12" t="inlineStr">
-        <is>
-          <t>SLT-LED-RW-T3-8L-SF</t>
-        </is>
-      </c>
-      <c r="C50" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D50" s="12" t="inlineStr">
-        <is>
-          <t>8500L LED, Type 3, Roadway</t>
-        </is>
-      </c>
-      <c r="E50" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="13" t="inlineStr"/>
-      <c r="H50" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H51" s="16" t="n">
-        <v>0</v>
+      <c r="H47" s="16" t="n">
+        <v>127.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A44:G44"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A40:G40"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A43:H43"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A47:H47"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A28:G28"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
